--- a/acoes.xlsx
+++ b/acoes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca80ca994a489d40/tcc valuation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{909FE2FF-3736-4E05-98F1-4162F4514A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95B195E-4306-466F-B891-6539DA28ACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D29F6AAE-15B0-42CE-9E4A-360D15AE9E42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29F6AAE-15B0-42CE-9E4A-360D15AE9E42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B7DDFE-8B21-4B50-A04F-0FA406D18105}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,9 +394,10 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2018</v>
       </c>
@@ -417,7 +414,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>273655375</v>
       </c>
@@ -431,6 +428,12 @@
         <v>2736553750</v>
       </c>
       <c r="E2">
+        <v>2736553750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>B2*10</f>
         <v>2736553750</v>
       </c>
     </row>

--- a/acoes.xlsx
+++ b/acoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95B195E-4306-466F-B891-6539DA28ACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9653A9-C39B-4CF3-8E2E-39AF15022535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29F6AAE-15B0-42CE-9E4A-360D15AE9E42}"/>
+    <workbookView xWindow="14715" yWindow="660" windowWidth="12810" windowHeight="14940" xr2:uid="{D29F6AAE-15B0-42CE-9E4A-360D15AE9E42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B7DDFE-8B21-4B50-A04F-0FA406D18105}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +397,7 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2018</v>
       </c>
@@ -414,7 +414,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>273655375</v>
       </c>
@@ -428,12 +428,6 @@
         <v>2736553750</v>
       </c>
       <c r="E2">
-        <v>2736553750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K3">
-        <f>B2*10</f>
         <v>2736553750</v>
       </c>
     </row>

--- a/acoes.xlsx
+++ b/acoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9653A9-C39B-4CF3-8E2E-39AF15022535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B00B4D-913D-4843-809D-DF23CA97E593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="660" windowWidth="12810" windowHeight="14940" xr2:uid="{D29F6AAE-15B0-42CE-9E4A-360D15AE9E42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29F6AAE-15B0-42CE-9E4A-360D15AE9E42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,13 +416,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>273655375</v>
+        <v>273655000</v>
       </c>
       <c r="B2">
-        <v>273655375</v>
+        <v>273655000</v>
       </c>
       <c r="C2">
-        <v>2736553750</v>
+        <v>273655000</v>
       </c>
       <c r="D2">
         <v>2736553750</v>
